--- a/results/12-2020/fim_stimulus_netc.xlsx
+++ b/results/12-2020/fim_stimulus_netc.xlsx
@@ -2447,7 +2447,7 @@
         <v>-24.47185498384533</v>
       </c>
       <c r="K16">
-        <v>53.32470574834156</v>
+        <v>10.32470574834156</v>
       </c>
       <c r="L16">
         <v>123.4559522245695</v>
@@ -2468,7 +2468,7 @@
         <v>39.53999455819593</v>
       </c>
       <c r="R16">
-        <v>-149.9778738705163</v>
+        <v>-106.9778738705163</v>
       </c>
       <c r="S16">
         <v>69.5259728142737</v>
@@ -2495,10 +2495,10 @@
         <v>154.1181408921864</v>
       </c>
       <c r="AA16">
-        <v>142.4456373064567</v>
+        <v>132.7706373064567</v>
       </c>
       <c r="AB16">
-        <v>11.65931028843118</v>
+        <v>21.33431028843118</v>
       </c>
       <c r="AC16">
         <v>261.0697063746613</v>
@@ -2557,7 +2557,7 @@
         <v>18.40694313425433</v>
       </c>
       <c r="D17">
-        <v>-53.49932847744867</v>
+        <v>-49.10996180764096</v>
       </c>
       <c r="E17">
         <v>41.79607852089066</v>
@@ -2578,7 +2578,7 @@
         <v>32.7794637204363</v>
       </c>
       <c r="K17">
-        <v>-239.0042980518072</v>
+        <v>-234.5099539595335</v>
       </c>
       <c r="L17">
         <v>13.15196637382815</v>
@@ -2599,7 +2599,7 @@
         <v>-14.37252058618165</v>
       </c>
       <c r="R17">
-        <v>185.350208608706</v>
+        <v>185.24523118624</v>
       </c>
       <c r="S17">
         <v>28.64411214706274</v>
@@ -2623,13 +2623,13 @@
         <v>-6.386582757034374</v>
       </c>
       <c r="Z17">
-        <v>-167.3795381561928</v>
+        <v>-166.3919306554861</v>
       </c>
       <c r="AA17">
-        <v>-143.0499200804696</v>
+        <v>-151.713692659708</v>
       </c>
       <c r="AB17">
-        <v>-24.19388288611304</v>
+        <v>-14.5425028061679</v>
       </c>
       <c r="AC17">
         <v>-143.5479825742421</v>
@@ -2688,7 +2688,7 @@
         <v>24.94135191264832</v>
       </c>
       <c r="D18">
-        <v>45.28978696202762</v>
+        <v>48.77783394551989</v>
       </c>
       <c r="E18">
         <v>32.01258513629455</v>
@@ -2709,7 +2709,7 @@
         <v>24.12737734491157</v>
       </c>
       <c r="K18">
-        <v>45.84417053196444</v>
+        <v>49.46415679469305</v>
       </c>
       <c r="L18">
         <v>10.96526462273096</v>
@@ -2730,7 +2730,7 @@
         <v>0.8139745677368637</v>
       </c>
       <c r="R18">
-        <v>-0.5543835699370447</v>
+        <v>-0.6863228491727966</v>
       </c>
       <c r="S18">
         <v>21.04732051356382</v>
@@ -2754,13 +2754,13 @@
         <v>-4.19474759532185</v>
       </c>
       <c r="Z18">
-        <v>218.0704711069047</v>
+        <v>219.8428891788972</v>
       </c>
       <c r="AA18">
-        <v>236.9493900451872</v>
+        <v>229.1001143750627</v>
       </c>
       <c r="AB18">
-        <v>-18.84520050542595</v>
+        <v>-9.223506763308844</v>
       </c>
       <c r="AC18">
         <v>23.35703075228043</v>
@@ -2819,7 +2819,7 @@
         <v>16.77480021403017</v>
       </c>
       <c r="D19">
-        <v>-23.2793948850931</v>
+        <v>-20.45389052194901</v>
       </c>
       <c r="E19">
         <v>23.0336082542417</v>
@@ -2840,7 +2840,7 @@
         <v>18.08640474963704</v>
       </c>
       <c r="K19">
-        <v>-22.45338308777673</v>
+        <v>-19.43129389223873</v>
       </c>
       <c r="L19">
         <v>5.852241901436628</v>
@@ -2861,7 +2861,7 @@
         <v>-1.311604535606989</v>
       </c>
       <c r="R19">
-        <v>-0.8260117973165677</v>
+        <v>-1.022596629710705</v>
       </c>
       <c r="S19">
         <v>17.18136635280439</v>
@@ -2885,13 +2885,13 @@
         <v>5.550714900932435</v>
       </c>
       <c r="Z19">
-        <v>-207.1683822958453</v>
+        <v>-204.7602257421453</v>
       </c>
       <c r="AA19">
-        <v>-196.0912704925815</v>
+        <v>-203.26057609371</v>
       </c>
       <c r="AB19">
-        <v>-11.18621458767913</v>
+        <v>-1.608752432850711</v>
       </c>
       <c r="AC19">
         <v>-83.58198945486278</v>
@@ -2950,7 +2950,7 @@
         <v>10.55561585641681</v>
       </c>
       <c r="D20">
-        <v>-92.24178225205446</v>
+        <v>-90.12522615647708</v>
       </c>
       <c r="E20">
         <v>21.2091170855374</v>
@@ -2971,7 +2971,7 @@
         <v>11.99034530448557</v>
       </c>
       <c r="K20">
-        <v>-91.74834059096884</v>
+        <v>-89.51434894960857</v>
       </c>
       <c r="L20">
         <v>3.425421371580796</v>
@@ -2992,7 +2992,7 @@
         <v>-1.43472944806885</v>
       </c>
       <c r="R20">
-        <v>-0.4934416610854555</v>
+        <v>-0.6108772068681674</v>
       </c>
       <c r="S20">
         <v>17.78369571395683</v>
@@ -3016,13 +3016,13 @@
         <v>-3.668598000477141</v>
       </c>
       <c r="Z20">
-        <v>-255.4154915505517</v>
+        <v>-252.5311098753469</v>
       </c>
       <c r="AA20">
-        <v>-286.2563256838615</v>
+        <v>-283.2479831656839</v>
       </c>
       <c r="AB20">
-        <v>30.81334475429732</v>
+        <v>30.68938391132462</v>
       </c>
       <c r="AC20">
         <v>-193.7989157479654</v>
@@ -3081,7 +3081,7 @@
         <v>24.47082542566432</v>
       </c>
       <c r="D21">
-        <v>-17.12044128089838</v>
+        <v>-17.95041051336057</v>
       </c>
       <c r="E21">
         <v>29.71278961179087</v>
@@ -3102,7 +3102,7 @@
         <v>25.88459423883023</v>
       </c>
       <c r="K21">
-        <v>-17.10250716497239</v>
+        <v>-17.9282082075797</v>
       </c>
       <c r="L21">
         <v>22.8507732035805</v>
@@ -3123,7 +3123,7 @@
         <v>-1.413768813165916</v>
       </c>
       <c r="R21">
-        <v>-0.01793411592609573</v>
+        <v>-0.02220230578114979</v>
       </c>
       <c r="S21">
         <v>6.862016408210593</v>
@@ -3147,13 +3147,13 @@
         <v>-0.7528788515486007</v>
       </c>
       <c r="Z21">
-        <v>-107.2339134806003</v>
+        <v>-105.5238823834062</v>
       </c>
       <c r="AA21">
-        <v>-95.14437713334702</v>
+        <v>-93.33304477051762</v>
       </c>
       <c r="AB21">
-        <v>-12.06216875244823</v>
+        <v>-12.16347001808345</v>
       </c>
       <c r="AC21">
         <v>-86.5679324882682</v>
@@ -3212,7 +3212,7 @@
         <v>66.03008580182359</v>
       </c>
       <c r="D22">
-        <v>2.887518103893626</v>
+        <v>2.518880281897054</v>
       </c>
       <c r="E22">
         <v>23.66214240544377</v>
@@ -3233,7 +3233,7 @@
         <v>24.62676302489558</v>
       </c>
       <c r="K22">
-        <v>2.565884750533996</v>
+        <v>2.120700517132946</v>
       </c>
       <c r="L22">
         <v>20.22615792439774</v>
@@ -3254,7 +3254,7 @@
         <v>41.40332277692784</v>
       </c>
       <c r="R22">
-        <v>0.3216333533596298</v>
+        <v>0.3981797647643361</v>
       </c>
       <c r="S22">
         <v>3.43598448104558</v>
@@ -3278,13 +3278,13 @@
         <v>8.379724495519369</v>
       </c>
       <c r="Z22">
-        <v>-99.55419526037275</v>
+        <v>-98.71191824441364</v>
       </c>
       <c r="AA22">
-        <v>-91.85723530650949</v>
+        <v>-90.96056630530927</v>
       </c>
       <c r="AB22">
-        <v>-7.689995710408895</v>
+        <v>-7.744387695650015</v>
       </c>
       <c r="AC22">
         <v>-69.34770377496054</v>
@@ -3343,7 +3343,7 @@
         <v>21.55291584976317</v>
       </c>
       <c r="D23">
-        <v>23.24759234858789</v>
+        <v>23.12688181615454</v>
       </c>
       <c r="E23">
         <v>20.1724907439675</v>
@@ -3364,7 +3364,7 @@
         <v>23.55814486449526</v>
       </c>
       <c r="K23">
-        <v>-15.60628973884991</v>
+        <v>-15.80576073262296</v>
       </c>
       <c r="L23">
         <v>18.0805892195749</v>
@@ -3385,7 +3385,7 @@
         <v>-2.005229014732294</v>
       </c>
       <c r="R23">
-        <v>38.85388208743791</v>
+        <v>38.93264254877741</v>
       </c>
       <c r="S23">
         <v>2.091901524393052</v>
@@ -3409,13 +3409,13 @@
         <v>8.223658987716176</v>
       </c>
       <c r="Z23">
-        <v>-99.19479866318898</v>
+        <v>-99.0154199987348</v>
       </c>
       <c r="AA23">
-        <v>-105.622031431534</v>
+        <v>-105.4502134729288</v>
       </c>
       <c r="AB23">
-        <v>6.427232768345073</v>
+        <v>6.434793474194022</v>
       </c>
       <c r="AC23">
         <v>-19.083279305355</v>
@@ -3474,7 +3474,7 @@
         <v>18.53739234416139</v>
       </c>
       <c r="D24">
-        <v>-3.442976141271402</v>
+        <v>-3.302218830830952</v>
       </c>
       <c r="E24">
         <v>19.41382228798102</v>
@@ -3495,7 +3495,7 @@
         <v>22.93610347405229</v>
       </c>
       <c r="K24">
-        <v>-39.74466973539847</v>
+        <v>-39.62390060148846</v>
       </c>
       <c r="L24">
         <v>16.97961679072569</v>
@@ -3516,7 +3516,7 @@
         <v>-4.398711129890899</v>
       </c>
       <c r="R24">
-        <v>36.30169359412716</v>
+        <v>36.32168177065762</v>
       </c>
       <c r="S24">
         <v>2.434205497254425</v>
@@ -3540,13 +3540,13 @@
         <v>7.556763109306214</v>
       </c>
       <c r="Z24">
-        <v>-31.07694046136568</v>
+        <v>-31.3421165235673</v>
       </c>
       <c r="AA24">
-        <v>-46.99282849622833</v>
+        <v>-47.29648560179939</v>
       </c>
       <c r="AB24">
-        <v>15.91588803486268</v>
+        <v>15.95436907823209</v>
       </c>
       <c r="AC24">
         <v>-31.19054585282587</v>
@@ -3605,7 +3605,7 @@
         <v>-13.88391352183135</v>
       </c>
       <c r="D25">
-        <v>20.84743431755146</v>
+        <v>20.96754197896462</v>
       </c>
       <c r="E25">
         <v>18.32979161762887</v>
@@ -3626,7 +3626,7 @@
         <v>-9.560708070013789</v>
       </c>
       <c r="K25">
-        <v>-12.63800951267444</v>
+        <v>-12.4905859223968</v>
       </c>
       <c r="L25">
         <v>15.48590085504975</v>
@@ -3647,7 +3647,7 @@
         <v>-4.323205451817387</v>
       </c>
       <c r="R25">
-        <v>33.48544383022596</v>
+        <v>33.45812790136148</v>
       </c>
       <c r="S25">
         <v>2.843890762579576</v>
@@ -3671,13 +3671,13 @@
         <v>6.902139865609633</v>
       </c>
       <c r="Z25">
-        <v>4.293042277463703</v>
+        <v>4.241633516384033</v>
       </c>
       <c r="AA25">
-        <v>-19.87977663923063</v>
+        <v>-19.96448070240258</v>
       </c>
       <c r="AB25">
-        <v>24.17281891669439</v>
+        <v>24.20611421878668</v>
       </c>
       <c r="AC25">
         <v>-5.241251874258551</v>
